--- a/pile5_sect_2_all.xlsx
+++ b/pile5_sect_2_all.xlsx
@@ -458,10 +458,10 @@
         <v>21.22875</v>
       </c>
       <c r="C3">
-        <v>25.17958333333334</v>
+        <v>25.17958333333333</v>
       </c>
       <c r="D3">
-        <v>25.18083333333333</v>
+        <v>25.18083333333334</v>
       </c>
       <c r="E3">
         <v>16.51916666666667</v>
@@ -478,13 +478,13 @@
         <v>44063</v>
       </c>
       <c r="B4">
-        <v>24.42916666666667</v>
+        <v>24.42916666666666</v>
       </c>
       <c r="C4">
-        <v>29.17958333333334</v>
+        <v>29.17958333333333</v>
       </c>
       <c r="D4">
-        <v>27.73208333333333</v>
+        <v>27.73208333333334</v>
       </c>
       <c r="E4">
         <v>19.74666666666667</v>
@@ -507,7 +507,7 @@
         <v>32.72791666666667</v>
       </c>
       <c r="D5">
-        <v>28.92958333333334</v>
+        <v>28.92958333333333</v>
       </c>
       <c r="E5">
         <v>19.36333333333333</v>
@@ -524,7 +524,7 @@
         <v>44065</v>
       </c>
       <c r="B6">
-        <v>29.42791666666667</v>
+        <v>29.42791666666666</v>
       </c>
       <c r="C6">
         <v>35.11291666666667</v>
@@ -573,13 +573,13 @@
         <v>29.60708333333334</v>
       </c>
       <c r="C8">
-        <v>34.58000000000001</v>
+        <v>34.58</v>
       </c>
       <c r="D8">
         <v>31.9</v>
       </c>
       <c r="E8">
-        <v>15.49416666666666</v>
+        <v>15.49416666666667</v>
       </c>
       <c r="F8">
         <v>81.625</v>
@@ -599,7 +599,7 @@
         <v>32.44916666666666</v>
       </c>
       <c r="D9">
-        <v>32.12708333333332</v>
+        <v>32.12708333333333</v>
       </c>
       <c r="E9">
         <v>13.44116666666667</v>
@@ -619,7 +619,7 @@
         <v>27.42583333333333</v>
       </c>
       <c r="C10">
-        <v>31.24166666666667</v>
+        <v>31.24166666666666</v>
       </c>
       <c r="D10">
         <v>31.91708333333333</v>
@@ -642,7 +642,7 @@
         <v>26.25875</v>
       </c>
       <c r="C11">
-        <v>29.98374999999999</v>
+        <v>29.98375</v>
       </c>
       <c r="D11">
         <v>30.885</v>
@@ -665,7 +665,7 @@
         <v>26.14666666666666</v>
       </c>
       <c r="C12">
-        <v>30.37416666666666</v>
+        <v>30.37416666666667</v>
       </c>
       <c r="D12">
         <v>27.605</v>
@@ -688,13 +688,13 @@
         <v>25.68083333333334</v>
       </c>
       <c r="C13">
-        <v>29.75624999999999</v>
+        <v>29.75625</v>
       </c>
       <c r="D13">
         <v>26.26833333333333</v>
       </c>
       <c r="E13">
-        <v>13.90666666666666</v>
+        <v>13.90666666666667</v>
       </c>
       <c r="F13">
         <v>77</v>
@@ -740,7 +740,7 @@
         <v>21.61375</v>
       </c>
       <c r="E15">
-        <v>14.04916666666666</v>
+        <v>14.04916666666667</v>
       </c>
       <c r="F15">
         <v>73.5</v>
@@ -777,7 +777,7 @@
         <v>44076</v>
       </c>
       <c r="B17">
-        <v>25.72750000000001</v>
+        <v>25.7275</v>
       </c>
       <c r="C17">
         <v>29.05208333333333</v>
@@ -800,7 +800,7 @@
         <v>44077</v>
       </c>
       <c r="B18">
-        <v>25.77249999999999</v>
+        <v>25.7725</v>
       </c>
       <c r="C18">
         <v>28.70666666666667</v>
@@ -846,13 +846,13 @@
         <v>44079</v>
       </c>
       <c r="B20">
-        <v>26.33333333333334</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="C20">
         <v>27.81375</v>
       </c>
       <c r="D20">
-        <v>17.60708333333334</v>
+        <v>17.60708333333333</v>
       </c>
       <c r="E20">
         <v>15.23</v>
@@ -861,7 +861,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="G20">
-        <v>4.400000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -918,7 +918,7 @@
         <v>25.67</v>
       </c>
       <c r="C23">
-        <v>28.03250000000001</v>
+        <v>28.0325</v>
       </c>
       <c r="D23">
         <v>22.76375</v>
@@ -938,10 +938,10 @@
         <v>44083</v>
       </c>
       <c r="B24">
-        <v>24.39458333333334</v>
+        <v>24.39458333333333</v>
       </c>
       <c r="C24">
-        <v>26.92041666666666</v>
+        <v>26.92041666666667</v>
       </c>
       <c r="D24">
         <v>24.21541666666667</v>
@@ -961,7 +961,7 @@
         <v>44084</v>
       </c>
       <c r="B25">
-        <v>24.60166666666666</v>
+        <v>24.60166666666667</v>
       </c>
       <c r="C25">
         <v>27.15958333333333</v>
@@ -993,7 +993,7 @@
         <v>20.59333333333333</v>
       </c>
       <c r="E26">
-        <v>9.641958333333331</v>
+        <v>9.641958333333333</v>
       </c>
       <c r="F26">
         <v>83.04166666666667</v>
@@ -1007,13 +1007,13 @@
         <v>44086</v>
       </c>
       <c r="B27">
-        <v>21.85958333333334</v>
+        <v>21.85958333333333</v>
       </c>
       <c r="C27">
         <v>24.05041666666667</v>
       </c>
       <c r="D27">
-        <v>20.49166666666666</v>
+        <v>20.49166666666667</v>
       </c>
       <c r="E27">
         <v>10.50566666666667</v>
@@ -1033,7 +1033,7 @@
         <v>19.59708333333333</v>
       </c>
       <c r="C28">
-        <v>20.85833333333334</v>
+        <v>20.85833333333333</v>
       </c>
       <c r="D28">
         <v>22.22958333333333</v>
@@ -1045,7 +1045,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="G28">
-        <v>9.799999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1053,7 +1053,7 @@
         <v>44088</v>
       </c>
       <c r="B29">
-        <v>15.88666666666667</v>
+        <v>15.88666666666666</v>
       </c>
       <c r="C29">
         <v>15.69</v>
@@ -1082,7 +1082,7 @@
         <v>15.33083333333333</v>
       </c>
       <c r="D30">
-        <v>23.91041666666666</v>
+        <v>23.91041666666667</v>
       </c>
       <c r="E30">
         <v>10.424</v>
@@ -1102,13 +1102,13 @@
         <v>18.38833333333333</v>
       </c>
       <c r="C31">
-        <v>18.07583333333334</v>
+        <v>18.07583333333333</v>
       </c>
       <c r="D31">
-        <v>20.99416666666666</v>
+        <v>20.99416666666667</v>
       </c>
       <c r="E31">
-        <v>9.808458333333334</v>
+        <v>9.808458333333332</v>
       </c>
       <c r="F31">
         <v>93.45833333333333</v>
@@ -1154,7 +1154,7 @@
         <v>11.7075</v>
       </c>
       <c r="E33">
-        <v>8.436250000000001</v>
+        <v>8.436249999999999</v>
       </c>
       <c r="F33">
         <v>79.875</v>
@@ -1200,7 +1200,7 @@
         <v>17.37833333333333</v>
       </c>
       <c r="E35">
-        <v>8.898416666666664</v>
+        <v>8.898416666666668</v>
       </c>
       <c r="F35">
         <v>78.875</v>
@@ -1217,7 +1217,7 @@
         <v>15.9975</v>
       </c>
       <c r="C36">
-        <v>16.58791666666666</v>
+        <v>16.58791666666667</v>
       </c>
       <c r="D36">
         <v>21.65916666666667</v>
@@ -1240,13 +1240,13 @@
         <v>14.46708333333333</v>
       </c>
       <c r="C37">
-        <v>14.11333333333333</v>
+        <v>14.11333333333334</v>
       </c>
       <c r="D37">
         <v>22.61</v>
       </c>
       <c r="E37">
-        <v>10.81533333333334</v>
+        <v>10.81533333333333</v>
       </c>
       <c r="F37">
         <v>70.125</v>
@@ -1266,7 +1266,7 @@
         <v>15.31916666666667</v>
       </c>
       <c r="D38">
-        <v>21.97375000000001</v>
+        <v>21.97375</v>
       </c>
       <c r="E38">
         <v>10.48108333333333</v>
@@ -1292,7 +1292,7 @@
         <v>21.36125</v>
       </c>
       <c r="E39">
-        <v>12.02708333333334</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="F39">
         <v>94.66666666666667</v>
@@ -1309,7 +1309,7 @@
         <v>18.46208333333333</v>
       </c>
       <c r="C40">
-        <v>18.27083333333334</v>
+        <v>18.27083333333333</v>
       </c>
       <c r="D40">
         <v>19.92625</v>
@@ -1358,7 +1358,7 @@
         <v>20.6275</v>
       </c>
       <c r="D42">
-        <v>20.27333333333334</v>
+        <v>20.27333333333333</v>
       </c>
       <c r="E42">
         <v>12.3825</v>
@@ -1398,10 +1398,10 @@
         <v>44103</v>
       </c>
       <c r="B44">
-        <v>21.06291666666666</v>
+        <v>21.06291666666667</v>
       </c>
       <c r="C44">
-        <v>22.88333333333333</v>
+        <v>22.88333333333334</v>
       </c>
       <c r="D44">
         <v>20.35</v>
@@ -1427,10 +1427,10 @@
         <v>23.73875</v>
       </c>
       <c r="D45">
-        <v>20.39958333333333</v>
+        <v>20.39958333333334</v>
       </c>
       <c r="E45">
-        <v>11.40041666666666</v>
+        <v>11.40041666666667</v>
       </c>
       <c r="F45">
         <v>91.41666666666667</v>
@@ -1444,10 +1444,10 @@
         <v>44105</v>
       </c>
       <c r="B46">
-        <v>22.27416666666666</v>
+        <v>22.27416666666667</v>
       </c>
       <c r="C46">
-        <v>24.62750000000001</v>
+        <v>24.6275</v>
       </c>
       <c r="D46">
         <v>20.35083333333333</v>
@@ -1476,7 +1476,7 @@
         <v>19.3875</v>
       </c>
       <c r="E47">
-        <v>10.73166666666666</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="F47">
         <v>88.33333333333333</v>
@@ -1493,7 +1493,7 @@
         <v>22.47583333333333</v>
       </c>
       <c r="C48">
-        <v>26.08583333333334</v>
+        <v>26.08583333333333</v>
       </c>
       <c r="D48">
         <v>17.905</v>
@@ -1513,7 +1513,7 @@
         <v>44108</v>
       </c>
       <c r="B49">
-        <v>22.60708333333334</v>
+        <v>22.60708333333333</v>
       </c>
       <c r="C49">
         <v>25.88791666666667</v>
@@ -1539,7 +1539,7 @@
         <v>22.90083333333333</v>
       </c>
       <c r="C50">
-        <v>25.48875000000001</v>
+        <v>25.48875</v>
       </c>
       <c r="D50">
         <v>12.10916666666667</v>
@@ -1582,16 +1582,16 @@
         <v>44111</v>
       </c>
       <c r="B52">
-        <v>23.16500000000001</v>
+        <v>23.165</v>
       </c>
       <c r="C52">
-        <v>24.53708333333334</v>
+        <v>24.53708333333333</v>
       </c>
       <c r="D52">
         <v>12.90708333333333</v>
       </c>
       <c r="E52">
-        <v>11.91708333333334</v>
+        <v>11.91708333333333</v>
       </c>
       <c r="F52">
         <v>90.29166666666667</v>
@@ -1631,7 +1631,7 @@
         <v>23.09625</v>
       </c>
       <c r="C54">
-        <v>24.13916666666666</v>
+        <v>24.13916666666667</v>
       </c>
       <c r="D54">
         <v>14.62958333333333</v>
@@ -1651,16 +1651,16 @@
         <v>44114</v>
       </c>
       <c r="B55">
-        <v>22.22208333333334</v>
+        <v>22.22208333333333</v>
       </c>
       <c r="C55">
         <v>24.79875</v>
       </c>
       <c r="D55">
-        <v>16.11666666666666</v>
+        <v>16.11666666666667</v>
       </c>
       <c r="E55">
-        <v>9.957500000000001</v>
+        <v>9.9575</v>
       </c>
       <c r="F55">
         <v>82.29166666666667</v>
@@ -1683,13 +1683,13 @@
         <v>17.62083333333333</v>
       </c>
       <c r="E56">
-        <v>8.823416666666665</v>
+        <v>8.823416666666667</v>
       </c>
       <c r="F56">
         <v>93.79166666666667</v>
       </c>
       <c r="G56">
-        <v>5.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1700,13 +1700,13 @@
         <v>20.71708333333333</v>
       </c>
       <c r="C57">
-        <v>24.15041666666666</v>
+        <v>24.15041666666667</v>
       </c>
       <c r="D57">
         <v>19.31791666666667</v>
       </c>
       <c r="E57">
-        <v>8.284124999999998</v>
+        <v>8.284125</v>
       </c>
       <c r="F57">
         <v>95.08333333333333</v>
@@ -1752,7 +1752,7 @@
         <v>18.88791666666667</v>
       </c>
       <c r="E59">
-        <v>5.322166666666666</v>
+        <v>5.322166666666667</v>
       </c>
       <c r="F59">
         <v>87.375</v>
@@ -1766,10 +1766,10 @@
         <v>44119</v>
       </c>
       <c r="B60">
-        <v>18.34208333333334</v>
+        <v>18.34208333333333</v>
       </c>
       <c r="C60">
-        <v>22.78458333333334</v>
+        <v>22.78458333333333</v>
       </c>
       <c r="D60">
         <v>18.4175</v>
@@ -1818,10 +1818,10 @@
         <v>18.44875</v>
       </c>
       <c r="D62">
-        <v>19.12749999999999</v>
+        <v>19.1275</v>
       </c>
       <c r="E62">
-        <v>4.374166666666666</v>
+        <v>4.374166666666667</v>
       </c>
       <c r="F62">
         <v>91.95833333333333</v>
@@ -1861,10 +1861,10 @@
         <v>14.10583333333333</v>
       </c>
       <c r="C64">
-        <v>16.70666666666666</v>
+        <v>16.70666666666667</v>
       </c>
       <c r="D64">
-        <v>15.47291666666666</v>
+        <v>15.47291666666667</v>
       </c>
       <c r="E64">
         <v>1.681791666666667</v>
@@ -1884,13 +1884,13 @@
         <v>14.33708333333333</v>
       </c>
       <c r="C65">
-        <v>18.27041666666666</v>
+        <v>18.27041666666667</v>
       </c>
       <c r="D65">
         <v>10.36875</v>
       </c>
       <c r="E65">
-        <v>0.1062916666666666</v>
+        <v>0.1062916666666667</v>
       </c>
       <c r="F65">
         <v>85.5</v>
@@ -1913,13 +1913,13 @@
         <v>10.78929166666667</v>
       </c>
       <c r="E66">
-        <v>0.5442499999999999</v>
+        <v>0.54425</v>
       </c>
       <c r="F66">
         <v>87.125</v>
       </c>
       <c r="G66">
-        <v>5.400000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>6.164625</v>
       </c>
       <c r="E67">
-        <v>4.699583333333332</v>
+        <v>4.699583333333334</v>
       </c>
       <c r="F67">
         <v>95.83333333333333</v>
@@ -1973,7 +1973,7 @@
         <v>44128</v>
       </c>
       <c r="B69">
-        <v>9.612083333333334</v>
+        <v>9.612083333333333</v>
       </c>
       <c r="C69">
         <v>11.425</v>
@@ -1982,7 +1982,7 @@
         <v>10.75195833333333</v>
       </c>
       <c r="E69">
-        <v>1.863583333333334</v>
+        <v>1.863583333333333</v>
       </c>
       <c r="F69">
         <v>83.20833333333333</v>
@@ -1999,10 +1999,10 @@
         <v>9.2525</v>
       </c>
       <c r="C70">
-        <v>9.770000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="D70">
-        <v>13.27541666666666</v>
+        <v>13.27541666666667</v>
       </c>
       <c r="E70">
         <v>1.084916666666667</v>
@@ -2028,7 +2028,7 @@
         <v>8.966749999999999</v>
       </c>
       <c r="E71">
-        <v>7.442125000000001</v>
+        <v>7.442125</v>
       </c>
       <c r="F71">
         <v>91.16666666666667</v>
@@ -2048,7 +2048,7 @@
         <v>14.3375</v>
       </c>
       <c r="D72">
-        <v>6.868375000000001</v>
+        <v>6.868375</v>
       </c>
       <c r="E72">
         <v>9.55875</v>
@@ -2071,7 +2071,7 @@
         <v>13.83458333333333</v>
       </c>
       <c r="D73">
-        <v>8.335916666666666</v>
+        <v>8.335916666666668</v>
       </c>
       <c r="E73">
         <v>8.31875</v>
@@ -2094,7 +2094,7 @@
         <v>14.11416666666667</v>
       </c>
       <c r="D74">
-        <v>8.542916666666665</v>
+        <v>8.542916666666667</v>
       </c>
       <c r="E74">
         <v>8.209291666666667</v>
@@ -2134,7 +2134,7 @@
         <v>44135</v>
       </c>
       <c r="B76">
-        <v>11.65083333333334</v>
+        <v>11.65083333333333</v>
       </c>
       <c r="C76">
         <v>13.55458333333333</v>
@@ -2143,7 +2143,7 @@
         <v>9.736666666666666</v>
       </c>
       <c r="E76">
-        <v>0.06470833333333344</v>
+        <v>0.06470833333333334</v>
       </c>
       <c r="F76">
         <v>91.04166666666667</v>
@@ -2166,7 +2166,7 @@
         <v>8.820416666666667</v>
       </c>
       <c r="E77">
-        <v>5.111250000000001</v>
+        <v>5.11125</v>
       </c>
       <c r="F77">
         <v>88.41666666666667</v>
@@ -2180,7 +2180,7 @@
         <v>44137</v>
       </c>
       <c r="B78">
-        <v>13.36291666666666</v>
+        <v>13.36291666666667</v>
       </c>
       <c r="C78">
         <v>14.22041666666667</v>
@@ -2189,7 +2189,7 @@
         <v>6.675833333333333</v>
       </c>
       <c r="E78">
-        <v>4.344749999999999</v>
+        <v>4.34475</v>
       </c>
       <c r="F78">
         <v>85.30434782608695</v>
@@ -2212,7 +2212,7 @@
         <v>6.412208333333333</v>
       </c>
       <c r="E79">
-        <v>8.991499999999998</v>
+        <v>8.9915</v>
       </c>
       <c r="F79">
         <v>88.70833333333333</v>
@@ -2232,7 +2232,7 @@
         <v>12.44625</v>
       </c>
       <c r="D80">
-        <v>9.077916666666665</v>
+        <v>9.077916666666667</v>
       </c>
       <c r="E80">
         <v>5.958291666666667</v>
@@ -2249,7 +2249,7 @@
         <v>44140</v>
       </c>
       <c r="B81">
-        <v>9.949333333333335</v>
+        <v>9.949333333333334</v>
       </c>
       <c r="C81">
         <v>10.26729166666667</v>
@@ -2258,7 +2258,7 @@
         <v>12.15208333333333</v>
       </c>
       <c r="E81">
-        <v>5.708000000000001</v>
+        <v>5.707999999999999</v>
       </c>
       <c r="F81">
         <v>75.875</v>
@@ -2275,7 +2275,7 @@
         <v>8.034291666666666</v>
       </c>
       <c r="C82">
-        <v>7.476458333333334</v>
+        <v>7.476458333333333</v>
       </c>
       <c r="D82">
         <v>13.26083333333333</v>
@@ -2301,10 +2301,10 @@
         <v>6.158333333333334</v>
       </c>
       <c r="D83">
-        <v>11.65666666666666</v>
+        <v>11.65666666666667</v>
       </c>
       <c r="E83">
-        <v>8.343624999999999</v>
+        <v>8.343625000000001</v>
       </c>
       <c r="F83">
         <v>71.25</v>
@@ -2318,7 +2318,7 @@
         <v>44143</v>
       </c>
       <c r="B84">
-        <v>7.264583333333335</v>
+        <v>7.264583333333333</v>
       </c>
       <c r="C84">
         <v>6.677625</v>
@@ -2341,10 +2341,10 @@
         <v>44144</v>
       </c>
       <c r="B85">
-        <v>6.705208333333332</v>
+        <v>6.705208333333334</v>
       </c>
       <c r="C85">
-        <v>6.944791666666666</v>
+        <v>6.944791666666667</v>
       </c>
       <c r="D85">
         <v>11.6125</v>
@@ -2367,13 +2367,13 @@
         <v>6.894958333333334</v>
       </c>
       <c r="C86">
-        <v>7.031708333333334</v>
+        <v>7.031708333333333</v>
       </c>
       <c r="D86">
         <v>12.56041666666667</v>
       </c>
       <c r="E86">
-        <v>-0.8717916666666666</v>
+        <v>-0.8717916666666667</v>
       </c>
       <c r="F86">
         <v>85.45833333333333</v>
@@ -2387,7 +2387,7 @@
         <v>44146</v>
       </c>
       <c r="B87">
-        <v>7.296583333333335</v>
+        <v>7.296583333333333</v>
       </c>
       <c r="C87">
         <v>7.343625</v>
@@ -2410,7 +2410,7 @@
         <v>44147</v>
       </c>
       <c r="B88">
-        <v>7.838458333333334</v>
+        <v>7.838458333333333</v>
       </c>
       <c r="C88">
         <v>7.59275</v>
@@ -2436,13 +2436,13 @@
         <v>8.408333333333333</v>
       </c>
       <c r="C89">
-        <v>7.783416666666665</v>
+        <v>7.783416666666667</v>
       </c>
       <c r="D89">
         <v>15.41125</v>
       </c>
       <c r="E89">
-        <v>3.387333333333333</v>
+        <v>3.387333333333334</v>
       </c>
       <c r="F89">
         <v>85.83333333333333</v>
@@ -2456,16 +2456,16 @@
         <v>44149</v>
       </c>
       <c r="B90">
-        <v>9.208333333333332</v>
+        <v>9.208333333333334</v>
       </c>
       <c r="C90">
-        <v>8.854999999999999</v>
+        <v>8.855</v>
       </c>
       <c r="D90">
-        <v>14.95083333333334</v>
+        <v>14.95083333333333</v>
       </c>
       <c r="E90">
-        <v>2.419041666666666</v>
+        <v>2.419041666666667</v>
       </c>
       <c r="F90">
         <v>86.54166666666667</v>
@@ -2479,7 +2479,7 @@
         <v>44150</v>
       </c>
       <c r="B91">
-        <v>10.18416666666666</v>
+        <v>10.18416666666667</v>
       </c>
       <c r="C91">
         <v>10.42916666666667</v>
@@ -2488,7 +2488,7 @@
         <v>12.63375</v>
       </c>
       <c r="E91">
-        <v>1.449333333333334</v>
+        <v>1.449333333333333</v>
       </c>
       <c r="F91">
         <v>86.04166666666667</v>
@@ -2505,10 +2505,10 @@
         <v>11.255</v>
       </c>
       <c r="C92">
-        <v>12.19208333333334</v>
+        <v>12.19208333333333</v>
       </c>
       <c r="D92">
-        <v>9.356791666666664</v>
+        <v>9.356791666666668</v>
       </c>
       <c r="E92">
         <v>1.644125</v>
@@ -2525,22 +2525,22 @@
         <v>44152</v>
       </c>
       <c r="B93">
-        <v>12.05708333333334</v>
+        <v>12.05708333333333</v>
       </c>
       <c r="C93">
         <v>13.2475</v>
       </c>
       <c r="D93">
-        <v>6.184499999999999</v>
+        <v>6.1845</v>
       </c>
       <c r="E93">
-        <v>3.076833333333334</v>
+        <v>3.076833333333333</v>
       </c>
       <c r="F93">
         <v>95.08333333333333</v>
       </c>
       <c r="G93">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2580,7 +2580,7 @@
         <v>10.02470833333333</v>
       </c>
       <c r="E95">
-        <v>7.258541666666669</v>
+        <v>7.258541666666667</v>
       </c>
       <c r="F95">
         <v>84.95833333333333</v>
@@ -2597,7 +2597,7 @@
         <v>5.157791666666667</v>
       </c>
       <c r="C96">
-        <v>6.823541666666665</v>
+        <v>6.823541666666667</v>
       </c>
       <c r="D96">
         <v>11.45916666666667</v>
@@ -2620,7 +2620,7 @@
         <v>5.652458333333333</v>
       </c>
       <c r="C97">
-        <v>7.028291666666668</v>
+        <v>7.028291666666667</v>
       </c>
       <c r="D97">
         <v>10.44875</v>
@@ -2632,7 +2632,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="G97">
-        <v>3.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2643,13 +2643,13 @@
         <v>6.342333333333333</v>
       </c>
       <c r="C98">
-        <v>7.211458333333334</v>
+        <v>7.211458333333333</v>
       </c>
       <c r="D98">
         <v>9.560833333333333</v>
       </c>
       <c r="E98">
-        <v>2.580124999999999</v>
+        <v>2.580125</v>
       </c>
       <c r="F98">
         <v>91.625</v>
@@ -2663,7 +2663,7 @@
         <v>44158</v>
       </c>
       <c r="B99">
-        <v>6.084208333333334</v>
+        <v>6.084208333333333</v>
       </c>
       <c r="C99">
         <v>6.687666666666666</v>
@@ -2686,10 +2686,10 @@
         <v>44159</v>
       </c>
       <c r="B100">
-        <v>6.302833333333335</v>
+        <v>6.302833333333333</v>
       </c>
       <c r="C100">
-        <v>6.116208333333332</v>
+        <v>6.116208333333333</v>
       </c>
       <c r="D100">
         <v>10.95208333333333</v>
@@ -2709,13 +2709,13 @@
         <v>44160</v>
       </c>
       <c r="B101">
-        <v>6.941333333333332</v>
+        <v>6.941333333333334</v>
       </c>
       <c r="C101">
         <v>6.824208333333334</v>
       </c>
       <c r="D101">
-        <v>9.942083333333331</v>
+        <v>9.942083333333333</v>
       </c>
       <c r="E101">
         <v>-2.0205</v>
@@ -2732,13 +2732,13 @@
         <v>44161</v>
       </c>
       <c r="B102">
-        <v>7.256833333333334</v>
+        <v>7.256833333333333</v>
       </c>
       <c r="C102">
         <v>6.890041666666666</v>
       </c>
       <c r="D102">
-        <v>9.626666666666663</v>
+        <v>9.626666666666667</v>
       </c>
       <c r="E102">
         <v>1.050791666666667</v>
@@ -2747,7 +2747,7 @@
         <v>91.83333333333333</v>
       </c>
       <c r="G102">
-        <v>7.200000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2778,7 +2778,7 @@
         <v>44163</v>
       </c>
       <c r="B104">
-        <v>8.515833333333331</v>
+        <v>8.515833333333333</v>
       </c>
       <c r="C104">
         <v>9.296249999999999</v>
@@ -2807,7 +2807,7 @@
         <v>9.475833333333332</v>
       </c>
       <c r="D105">
-        <v>6.537333333333333</v>
+        <v>6.537333333333334</v>
       </c>
       <c r="E105">
         <v>-0.6397916666666666</v>
@@ -2847,10 +2847,10 @@
         <v>44166</v>
       </c>
       <c r="B107">
-        <v>8.346833333333333</v>
+        <v>8.346833333333334</v>
       </c>
       <c r="C107">
-        <v>9.465499999999999</v>
+        <v>9.4655</v>
       </c>
       <c r="D107">
         <v>5.65925</v>
@@ -2873,13 +2873,13 @@
         <v>7.180916666666666</v>
       </c>
       <c r="C108">
-        <v>8.021291666666665</v>
+        <v>8.021291666666666</v>
       </c>
       <c r="D108">
-        <v>7.340624999999999</v>
+        <v>7.340625</v>
       </c>
       <c r="E108">
-        <v>0.04624999999999996</v>
+        <v>0.04625000000000001</v>
       </c>
       <c r="F108">
         <v>91</v>
@@ -2899,7 +2899,7 @@
         <v>9.316666666666666</v>
       </c>
       <c r="D109">
-        <v>5.168333333333333</v>
+        <v>5.168333333333334</v>
       </c>
       <c r="E109">
         <v>-1.112708333333333</v>
@@ -2916,7 +2916,7 @@
         <v>44169</v>
       </c>
       <c r="B110">
-        <v>8.499583333333335</v>
+        <v>8.499583333333334</v>
       </c>
       <c r="C110">
         <v>9.554166666666667</v>
@@ -2925,7 +2925,7 @@
         <v>4.335416666666666</v>
       </c>
       <c r="E110">
-        <v>-0.8550833333333331</v>
+        <v>-0.8550833333333333</v>
       </c>
       <c r="F110">
         <v>84.875</v>
@@ -2939,10 +2939,10 @@
         <v>44170</v>
       </c>
       <c r="B111">
-        <v>8.862083333333336</v>
+        <v>8.862083333333333</v>
       </c>
       <c r="C111">
-        <v>9.514999999999999</v>
+        <v>9.515000000000001</v>
       </c>
       <c r="D111">
         <v>3.444166666666666</v>
@@ -2965,13 +2965,13 @@
         <v>9.19</v>
       </c>
       <c r="C112">
-        <v>9.499583333333335</v>
+        <v>9.499583333333332</v>
       </c>
       <c r="D112">
         <v>3.133</v>
       </c>
       <c r="E112">
-        <v>2.182333333333334</v>
+        <v>2.182333333333333</v>
       </c>
       <c r="F112">
         <v>96.70833333333333</v>
@@ -2985,7 +2985,7 @@
         <v>44172</v>
       </c>
       <c r="B113">
-        <v>9.263749999999998</v>
+        <v>9.26375</v>
       </c>
       <c r="C113">
         <v>9.44125</v>
@@ -3011,7 +3011,7 @@
         <v>8.97875</v>
       </c>
       <c r="C114">
-        <v>9.347916666666668</v>
+        <v>9.347916666666666</v>
       </c>
       <c r="D114">
         <v>2.892958333333333</v>
@@ -3031,7 +3031,7 @@
         <v>44174</v>
       </c>
       <c r="B115">
-        <v>8.696250000000003</v>
+        <v>8.696250000000001</v>
       </c>
       <c r="C115">
         <v>9.171666666666667</v>
@@ -3040,7 +3040,7 @@
         <v>2.881875</v>
       </c>
       <c r="E115">
-        <v>-3.974291666666668</v>
+        <v>-3.974291666666666</v>
       </c>
       <c r="F115">
         <v>83.125</v>
@@ -3057,13 +3057,13 @@
         <v>8.52</v>
       </c>
       <c r="C116">
-        <v>9.023333333333332</v>
+        <v>9.023333333333333</v>
       </c>
       <c r="D116">
-        <v>2.890958333333334</v>
+        <v>2.890958333333333</v>
       </c>
       <c r="E116">
-        <v>-3.702916666666666</v>
+        <v>-3.702916666666667</v>
       </c>
       <c r="F116">
         <v>86.33333333333333</v>
@@ -3083,10 +3083,10 @@
         <v>8.892083333333334</v>
       </c>
       <c r="D117">
-        <v>2.991916666666666</v>
+        <v>2.991916666666667</v>
       </c>
       <c r="E117">
-        <v>-4.134375000000001</v>
+        <v>-4.134374999999999</v>
       </c>
       <c r="F117">
         <v>87.83333333333333</v>
@@ -3103,7 +3103,7 @@
         <v>7.968666666666667</v>
       </c>
       <c r="C118">
-        <v>8.750833333333333</v>
+        <v>8.750833333333334</v>
       </c>
       <c r="D118">
         <v>3.028291666666667</v>
@@ -3129,10 +3129,10 @@
         <v>8.628333333333334</v>
       </c>
       <c r="D119">
-        <v>2.959416666666668</v>
+        <v>2.959416666666666</v>
       </c>
       <c r="E119">
-        <v>-2.910874999999999</v>
+        <v>-2.910875</v>
       </c>
       <c r="F119">
         <v>89.75</v>
@@ -3172,13 +3172,13 @@
         <v>7.384374999999999</v>
       </c>
       <c r="C121">
-        <v>8.335833333333335</v>
+        <v>8.335833333333333</v>
       </c>
       <c r="D121">
         <v>3.414958333333333</v>
       </c>
       <c r="E121">
-        <v>-2.689583333333334</v>
+        <v>-2.689583333333333</v>
       </c>
       <c r="F121">
         <v>91.08333333333333</v>
@@ -3192,7 +3192,7 @@
         <v>44181</v>
       </c>
       <c r="B122">
-        <v>7.849458333333335</v>
+        <v>7.849458333333334</v>
       </c>
       <c r="C122">
         <v>8.487083333333333</v>
@@ -3215,7 +3215,7 @@
         <v>44182</v>
       </c>
       <c r="B123">
-        <v>7.724333333333335</v>
+        <v>7.724333333333334</v>
       </c>
       <c r="C123">
         <v>8.475416666666666</v>
@@ -3238,7 +3238,7 @@
         <v>44183</v>
       </c>
       <c r="B124">
-        <v>7.415291666666668</v>
+        <v>7.415291666666666</v>
       </c>
       <c r="C124">
         <v>8.47625</v>
@@ -3261,16 +3261,16 @@
         <v>44184</v>
       </c>
       <c r="B125">
-        <v>7.575291666666668</v>
+        <v>7.575291666666666</v>
       </c>
       <c r="C125">
         <v>8.260833333333332</v>
       </c>
       <c r="D125">
-        <v>2.496500000000001</v>
+        <v>2.4965</v>
       </c>
       <c r="E125">
-        <v>-1.485458333333333</v>
+        <v>-1.485458333333334</v>
       </c>
       <c r="F125">
         <v>94.95833333333333</v>
@@ -3284,10 +3284,10 @@
         <v>44185</v>
       </c>
       <c r="B126">
-        <v>7.164125000000001</v>
+        <v>7.164124999999999</v>
       </c>
       <c r="C126">
-        <v>7.792291666666667</v>
+        <v>7.792291666666666</v>
       </c>
       <c r="D126">
         <v>3.26725</v>
@@ -3307,10 +3307,10 @@
         <v>44186</v>
       </c>
       <c r="B127">
-        <v>6.304541666666668</v>
+        <v>6.304541666666666</v>
       </c>
       <c r="C127">
-        <v>6.476791666666668</v>
+        <v>6.476791666666667</v>
       </c>
       <c r="D127">
         <v>4.631333333333333</v>
@@ -3336,7 +3336,7 @@
         <v>6.046791666666667</v>
       </c>
       <c r="D128">
-        <v>5.432208333333332</v>
+        <v>5.432208333333333</v>
       </c>
       <c r="E128">
         <v>2.614416666666667</v>
@@ -3356,13 +3356,13 @@
         <v>6.760541666666666</v>
       </c>
       <c r="C129">
-        <v>7.059874999999999</v>
+        <v>7.059875000000001</v>
       </c>
       <c r="D129">
         <v>4.49425</v>
       </c>
       <c r="E129">
-        <v>-0.02837500000000002</v>
+        <v>-0.02837499999999999</v>
       </c>
       <c r="F129">
         <v>94.75</v>
@@ -3385,7 +3385,7 @@
         <v>4.268041666666667</v>
       </c>
       <c r="E130">
-        <v>-0.5793749999999999</v>
+        <v>-0.579375</v>
       </c>
       <c r="F130">
         <v>96.375</v>
@@ -3399,13 +3399,13 @@
         <v>44190</v>
       </c>
       <c r="B131">
-        <v>7.107041666666665</v>
+        <v>7.107041666666666</v>
       </c>
       <c r="C131">
         <v>7.645708333333334</v>
       </c>
       <c r="D131">
-        <v>3.070208333333334</v>
+        <v>3.070208333333333</v>
       </c>
       <c r="E131">
         <v>-1.789541666666667</v>
@@ -3445,16 +3445,16 @@
         <v>44192</v>
       </c>
       <c r="B133">
-        <v>6.988750000000002</v>
+        <v>6.98875</v>
       </c>
       <c r="C133">
-        <v>7.670208333333332</v>
+        <v>7.670208333333334</v>
       </c>
       <c r="D133">
         <v>2.399333333333333</v>
       </c>
       <c r="E133">
-        <v>-3.602708333333333</v>
+        <v>-3.602708333333334</v>
       </c>
       <c r="F133">
         <v>89.83333333333333</v>
@@ -3468,13 +3468,13 @@
         <v>44193</v>
       </c>
       <c r="B134">
-        <v>7.255833333333334</v>
+        <v>7.255833333333332</v>
       </c>
       <c r="C134">
         <v>7.412624999999999</v>
       </c>
       <c r="D134">
-        <v>1.884833333333334</v>
+        <v>1.884833333333333</v>
       </c>
       <c r="E134">
         <v>-2.078041666666667</v>
@@ -3491,7 +3491,7 @@
         <v>44194</v>
       </c>
       <c r="B135">
-        <v>7.279249999999998</v>
+        <v>7.27925</v>
       </c>
       <c r="C135">
         <v>7.055791666666667</v>
@@ -3514,7 +3514,7 @@
         <v>44195</v>
       </c>
       <c r="B136">
-        <v>6.900124999999999</v>
+        <v>6.900125</v>
       </c>
       <c r="C136">
         <v>6.776125</v>
@@ -3537,7 +3537,7 @@
         <v>44196</v>
       </c>
       <c r="B137">
-        <v>7.039500000000001</v>
+        <v>7.0395</v>
       </c>
       <c r="C137">
         <v>6.408791666666667</v>
@@ -3546,7 +3546,7 @@
         <v>1.077083333333333</v>
       </c>
       <c r="E137">
-        <v>0.6207083333333334</v>
+        <v>0.6207083333333333</v>
       </c>
       <c r="F137">
         <v>94.16666666666667</v>
@@ -3632,7 +3632,7 @@
         <v>6.676166666666667</v>
       </c>
       <c r="C141">
-        <v>6.640166666666668</v>
+        <v>6.640166666666667</v>
       </c>
       <c r="D141">
         <v>1.919041666666667</v>
@@ -3652,13 +3652,13 @@
         <v>44201</v>
       </c>
       <c r="B142">
-        <v>6.040999999999999</v>
+        <v>6.041</v>
       </c>
       <c r="C142">
-        <v>6.373374999999999</v>
+        <v>6.373375</v>
       </c>
       <c r="D142">
-        <v>2.173375000000001</v>
+        <v>2.173375</v>
       </c>
       <c r="E142">
         <v>-10.69083333333333</v>
@@ -3678,7 +3678,7 @@
         <v>5.691458333333333</v>
       </c>
       <c r="C143">
-        <v>6.191916666666665</v>
+        <v>6.191916666666667</v>
       </c>
       <c r="D143">
         <v>2.513166666666667</v>
@@ -3701,13 +3701,13 @@
         <v>5.713333333333334</v>
       </c>
       <c r="C144">
-        <v>6.036499999999999</v>
+        <v>6.0365</v>
       </c>
       <c r="D144">
         <v>2.3555</v>
       </c>
       <c r="E144">
-        <v>-6.892750000000002</v>
+        <v>-6.892749999999999</v>
       </c>
       <c r="F144">
         <v>90.375</v>
@@ -3721,13 +3721,13 @@
         <v>44204</v>
       </c>
       <c r="B145">
-        <v>5.460124999999999</v>
+        <v>5.460125000000001</v>
       </c>
       <c r="C145">
-        <v>5.827458333333335</v>
+        <v>5.827458333333333</v>
       </c>
       <c r="D145">
-        <v>2.334291666666668</v>
+        <v>2.334291666666667</v>
       </c>
       <c r="E145">
         <v>-8.64625</v>
@@ -3747,7 +3747,7 @@
         <v>4.719791666666667</v>
       </c>
       <c r="C146">
-        <v>5.343750000000001</v>
+        <v>5.34375</v>
       </c>
       <c r="D146">
         <v>2.550041666666667</v>
@@ -3770,7 +3770,7 @@
         <v>4.217583333333334</v>
       </c>
       <c r="C147">
-        <v>4.827625000000001</v>
+        <v>4.827625</v>
       </c>
       <c r="D147">
         <v>2.639583333333333</v>
@@ -3793,13 +3793,13 @@
         <v>4.65625</v>
       </c>
       <c r="C148">
-        <v>4.774041666666667</v>
+        <v>4.774041666666666</v>
       </c>
       <c r="D148">
-        <v>2.109083333333334</v>
+        <v>2.109083333333333</v>
       </c>
       <c r="E148">
-        <v>-9.769166666666669</v>
+        <v>-9.769166666666667</v>
       </c>
       <c r="F148">
         <v>86.75</v>
@@ -3836,7 +3836,7 @@
         <v>44209</v>
       </c>
       <c r="B150">
-        <v>3.833916666666665</v>
+        <v>3.833916666666667</v>
       </c>
       <c r="C150">
         <v>4.855541666666666</v>
@@ -3908,7 +3908,7 @@
         <v>2.086708333333334</v>
       </c>
       <c r="C153">
-        <v>2.590833333333334</v>
+        <v>2.590833333333333</v>
       </c>
       <c r="D153">
         <v>2.1315</v>
@@ -3928,7 +3928,7 @@
         <v>44213</v>
       </c>
       <c r="B154">
-        <v>2.325666666666666</v>
+        <v>2.325666666666667</v>
       </c>
       <c r="C154">
         <v>2.623666666666667</v>
@@ -3954,7 +3954,7 @@
         <v>2.107125</v>
       </c>
       <c r="C155">
-        <v>2.567041666666666</v>
+        <v>2.567041666666667</v>
       </c>
       <c r="D155">
         <v>3.230583333333334</v>
@@ -3974,16 +3974,16 @@
         <v>44215</v>
       </c>
       <c r="B156">
-        <v>2.187708333333333</v>
+        <v>2.187708333333334</v>
       </c>
       <c r="C156">
-        <v>2.841208333333334</v>
+        <v>2.841208333333333</v>
       </c>
       <c r="D156">
         <v>3.279666666666667</v>
       </c>
       <c r="E156">
-        <v>-3.523083333333333</v>
+        <v>-3.523083333333334</v>
       </c>
       <c r="F156">
         <v>93.79166666666667</v>
@@ -3997,16 +3997,16 @@
         <v>44216</v>
       </c>
       <c r="B157">
-        <v>2.089208333333334</v>
+        <v>2.089208333333333</v>
       </c>
       <c r="C157">
-        <v>3.046749999999999</v>
+        <v>3.04675</v>
       </c>
       <c r="D157">
         <v>3.199333333333334</v>
       </c>
       <c r="E157">
-        <v>-4.509416666666666</v>
+        <v>-4.509416666666667</v>
       </c>
       <c r="F157">
         <v>91.70833333333333</v>
@@ -4066,7 +4066,7 @@
         <v>44219</v>
       </c>
       <c r="B160">
-        <v>1.942916666666666</v>
+        <v>1.942916666666667</v>
       </c>
       <c r="C160">
         <v>2.729125</v>
@@ -4075,7 +4075,7 @@
         <v>1.349458333333333</v>
       </c>
       <c r="E160">
-        <v>-2.986749999999999</v>
+        <v>-2.98675</v>
       </c>
       <c r="F160">
         <v>93.33333333333333</v>
@@ -4098,7 +4098,7 @@
         <v>1.444708333333333</v>
       </c>
       <c r="E161">
-        <v>0.5332499999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="F161">
         <v>96.33333333333333</v>
@@ -4115,13 +4115,13 @@
         <v>2.838208333333334</v>
       </c>
       <c r="C162">
-        <v>3.245083333333333</v>
+        <v>3.245083333333334</v>
       </c>
       <c r="D162">
         <v>1.637791666666667</v>
       </c>
       <c r="E162">
-        <v>0.3883749999999999</v>
+        <v>0.388375</v>
       </c>
       <c r="F162">
         <v>97.625</v>
@@ -4138,13 +4138,13 @@
         <v>3.073458333333333</v>
       </c>
       <c r="C163">
-        <v>3.469458333333332</v>
+        <v>3.469458333333333</v>
       </c>
       <c r="D163">
-        <v>1.655083333333334</v>
+        <v>1.655083333333333</v>
       </c>
       <c r="E163">
-        <v>0.4143749999999999</v>
+        <v>0.414375</v>
       </c>
       <c r="F163">
         <v>94.70833333333333</v>
@@ -4167,7 +4167,7 @@
         <v>1.666541666666667</v>
       </c>
       <c r="E164">
-        <v>0.2362916666666668</v>
+        <v>0.2362916666666667</v>
       </c>
       <c r="F164">
         <v>98.25</v>
@@ -4204,7 +4204,7 @@
         <v>44225</v>
       </c>
       <c r="B166">
-        <v>3.417250000000001</v>
+        <v>3.41725</v>
       </c>
       <c r="C166">
         <v>3.867125</v>
@@ -4227,10 +4227,10 @@
         <v>44226</v>
       </c>
       <c r="B167">
-        <v>3.734416666666666</v>
+        <v>3.734416666666667</v>
       </c>
       <c r="C167">
-        <v>4.104874999999999</v>
+        <v>4.104875</v>
       </c>
       <c r="D167">
         <v>1.381958333333333</v>
@@ -4250,7 +4250,7 @@
         <v>44227</v>
       </c>
       <c r="B168">
-        <v>3.579499999999999</v>
+        <v>3.5795</v>
       </c>
       <c r="C168">
         <v>4.086833333333334</v>
@@ -4273,7 +4273,7 @@
         <v>44228</v>
       </c>
       <c r="B169">
-        <v>3.343916666666666</v>
+        <v>3.343916666666667</v>
       </c>
       <c r="C169">
         <v>3.956125</v>
@@ -4299,13 +4299,13 @@
         <v>2.863958333333333</v>
       </c>
       <c r="C170">
-        <v>3.667833333333333</v>
+        <v>3.667833333333334</v>
       </c>
       <c r="D170">
         <v>1.86425</v>
       </c>
       <c r="E170">
-        <v>-17.80416666666666</v>
+        <v>-17.80416666666667</v>
       </c>
       <c r="F170">
         <v>83.45833333333333</v>
@@ -4322,7 +4322,7 @@
         <v>2.840875</v>
       </c>
       <c r="C171">
-        <v>3.538499999999999</v>
+        <v>3.5385</v>
       </c>
       <c r="D171">
         <v>1.3335</v>
@@ -4368,7 +4368,7 @@
         <v>1.965208333333333</v>
       </c>
       <c r="C173">
-        <v>2.877291666666666</v>
+        <v>2.877291666666667</v>
       </c>
       <c r="D173">
         <v>1.521208333333333</v>
@@ -4411,7 +4411,7 @@
         <v>44234</v>
       </c>
       <c r="B175">
-        <v>2.131208333333334</v>
+        <v>2.131208333333333</v>
       </c>
       <c r="C175">
         <v>2.773291666666667</v>
